--- a/data/Flow Order.xlsx
+++ b/data/Flow Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF7AE2-9230-48A2-8AB9-3122F38B0F21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0817F5-3B9A-4191-9BF9-C8DE679E9C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{302253DD-1982-4099-8AAD-B95BD642D304}"/>
+    <workbookView xWindow="7515" yWindow="4005" windowWidth="14505" windowHeight="11220" firstSheet="3" activeTab="3" xr2:uid="{302253DD-1982-4099-8AAD-B95BD642D304}"/>
   </bookViews>
   <sheets>
     <sheet name="stsimsf_FlowType" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Flow Order" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Flow Order'!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Flow Order'!$C$1:$D$43</definedName>
     <definedName name="Range_ManifestReferenceTypes">ManifestReferenceTypes!$A$2:$A$4</definedName>
     <definedName name="Range_stsimsf_FlowType">stsimsf_FlowType!$B$2:$B$37</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Iteration</t>
   </si>
@@ -204,6 +204,36 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CH4</t>
+  </si>
+  <si>
+    <t>LULC: Transfer DOM</t>
+  </si>
+  <si>
+    <t>LULC: Harvest DOM</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CH4</t>
+  </si>
+  <si>
+    <t>LULC: Harvest Live</t>
+  </si>
+  <si>
+    <t>LULC: Mortality Live</t>
   </si>
 </sst>
 </file>
@@ -311,30 +341,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -361,6 +367,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -375,14 +405,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3AB231E-6338-4826-8881-F03133D40C78}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3AB231E-6338-4826-8881-F03133D40C78}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{77E8D30F-CC22-46EF-BF2A-42997E9DA525}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B5EDFC2-EF4F-490D-8A71-FB71F5511F38}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EEE28A22-BEDB-4FAD-A72C-2B912EFF1D86}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5E73A4DE-C61C-4A30-89D0-F75D20CE399D}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{913F810E-EEBD-408F-B5E8-12050F22F1B9}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C91CD979-2C8A-4E2D-B1D9-D4F4A547E549}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7B5EDFC2-EF4F-490D-8A71-FB71F5511F38}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EEE28A22-BEDB-4FAD-A72C-2B912EFF1D86}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5E73A4DE-C61C-4A30-89D0-F75D20CE399D}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{913F810E-EEBD-408F-B5E8-12050F22F1B9}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C91CD979-2C8A-4E2D-B1D9-D4F4A547E549}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,18 +1139,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA9227-34D1-4C07-82F5-BED4DA183D00}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="6" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1332,71 +1362,155 @@
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D36">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D37">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D38">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D39">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D40">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D41" s="9">
         <v>6.7</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D42" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D43" s="9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33" xr:uid="{59B7BCDA-604F-4187-A51C-F2A832351517}"/>
+  <autoFilter ref="C1:D43" xr:uid="{6FCA9227-34D1-4C07-82F5-BED4DA183D00}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D43">
+      <sortCondition ref="C1:C43"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'Iteration' must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{8DDA5660-3CDA-4761-8E95-663129218483}">
       <formula1>0</formula1>

--- a/data/Flow Order.xlsx
+++ b/data/Flow Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0817F5-3B9A-4191-9BF9-C8DE679E9C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7D414-03F0-436B-A39A-9281AA71C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="4005" windowWidth="14505" windowHeight="11220" firstSheet="3" activeTab="3" xr2:uid="{302253DD-1982-4099-8AAD-B95BD642D304}"/>
+    <workbookView xWindow="7680" yWindow="1710" windowWidth="14610" windowHeight="11565" firstSheet="3" activeTab="3" xr2:uid="{302253DD-1982-4099-8AAD-B95BD642D304}"/>
   </bookViews>
   <sheets>
     <sheet name="stsimsf_FlowType" sheetId="3" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Iteration</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>LULC: Mortality Live</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Coarse Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Fine Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Foliage</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Merchantable</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Other Wood</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1157,8 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1458,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -1451,7 +1466,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1459,7 +1474,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1467,7 +1482,7 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -1475,7 +1490,7 @@
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D40">
         <v>7</v>
